--- a/data/trans_dic/P17A-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P17A-Provincia-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.2788921519604978</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.2312158190490949</v>
+        <v>0.2312158190490948</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1375487956554545</v>
+        <v>0.1390216590001817</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1637373879730041</v>
+        <v>0.1636487047053392</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1867634125193866</v>
+        <v>0.1808851492120661</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1647750364613712</v>
+        <v>0.1630917469300334</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2005941268948309</v>
+        <v>0.2028541129255058</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2699444562941944</v>
+        <v>0.2743297087283367</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2706622525496868</v>
+        <v>0.270158622419426</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2205823277002131</v>
+        <v>0.2204335311076724</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1807453494549987</v>
+        <v>0.1822736637593003</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2336283754685336</v>
+        <v>0.2331816253328894</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2434200036990325</v>
+        <v>0.2417227967550335</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2021198124134607</v>
+        <v>0.2014300565184924</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2262383372327685</v>
+        <v>0.2286281409602761</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2605917690032261</v>
+        <v>0.2661244133552573</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2864231959580116</v>
+        <v>0.2831668720888544</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2522938369748883</v>
+        <v>0.2537202232701033</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3098028022271011</v>
+        <v>0.3090368471654347</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3916831945973774</v>
+        <v>0.3980513580045578</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3839037788868924</v>
+        <v>0.379566796716396</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3033041306080759</v>
+        <v>0.2990419176841493</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2581953110225809</v>
+        <v>0.2517251406139306</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3088389494000969</v>
+        <v>0.3081693917819226</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3164606341569376</v>
+        <v>0.3197945435421191</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2626738798091238</v>
+        <v>0.2655287213038064</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1450627850198951</v>
+        <v>0.146421861490957</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1713260540479125</v>
+        <v>0.1694339410768184</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1813847940928698</v>
+        <v>0.1859991765712184</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.126721028691479</v>
+        <v>0.1246568231703742</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2245011222323814</v>
+        <v>0.2265499479074479</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.260057645281614</v>
+        <v>0.2557260939392214</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.3062795041757721</v>
+        <v>0.30379601330608</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1578399530636965</v>
+        <v>0.1582825089839107</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1973370673927449</v>
+        <v>0.1971332780919194</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2219510582662674</v>
+        <v>0.2257525203490816</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2568947604365312</v>
+        <v>0.2567517172268549</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1509675868883355</v>
+        <v>0.1479969407580988</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2177267846541707</v>
+        <v>0.2123758611971905</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2499599508499198</v>
+        <v>0.2528446313804645</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2550200157521597</v>
+        <v>0.2610247955242795</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1982824443623042</v>
+        <v>0.1971726947025519</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3036264779007122</v>
+        <v>0.3041111345284194</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3444724329335132</v>
+        <v>0.3413114631194891</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3915164333824638</v>
+        <v>0.3891342180893755</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2183716592508768</v>
+        <v>0.2184184818887436</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.2498477959775176</v>
+        <v>0.249386105940697</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.2811487159742361</v>
+        <v>0.27961081169223</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3154400757786887</v>
+        <v>0.3145648766371745</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1957387493097024</v>
+        <v>0.1986546503405832</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1315430608727786</v>
+        <v>0.1319513800865085</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2172257508897324</v>
+        <v>0.2183867050718607</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1898879652724028</v>
+        <v>0.1906290266226245</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.160559880143213</v>
+        <v>0.1643121973884437</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2565621949269373</v>
+        <v>0.253038153684</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3697481101640155</v>
+        <v>0.3671291644437556</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.2621134095495253</v>
+        <v>0.2643896652400817</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1872940879329001</v>
+        <v>0.1858216156449884</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2066304532903984</v>
+        <v>0.2044465091150454</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.3070415887856737</v>
+        <v>0.3085212954462874</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2391318009226691</v>
+        <v>0.2380055941024768</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1882247936347289</v>
+        <v>0.184937355730129</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2207204159110372</v>
+        <v>0.2187458812196077</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3178997005216633</v>
+        <v>0.3238436212237727</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2838008591336516</v>
+        <v>0.2830215138369844</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2457318560382099</v>
+        <v>0.2513749773096826</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3544890823653108</v>
+        <v>0.348882211836354</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.4768651408177288</v>
+        <v>0.474364648682345</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.360390288218371</v>
+        <v>0.3622018934538889</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.260797909142773</v>
+        <v>0.2573533517606109</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.2709895452552907</v>
+        <v>0.270997443113363</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3835793318993334</v>
+        <v>0.3826216509588378</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3073317546222896</v>
+        <v>0.3079134243159052</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2418129387028619</v>
+        <v>0.2399864774312395</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.2982116814054219</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2483489334941888</v>
+        <v>0.2483489334941887</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1135581299620265</v>
+        <v>0.1161183921638093</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1519670485882054</v>
+        <v>0.1489505074600691</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.200158140019828</v>
+        <v>0.1989870939747999</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.175403380211845</v>
+        <v>0.1782708304031767</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.2818347826259575</v>
+        <v>0.2789245011242217</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2511172103973882</v>
+        <v>0.2570884499999539</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3006960007078706</v>
+        <v>0.3053178216730035</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.2329403969834782</v>
+        <v>0.2293014867271168</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2057955186701203</v>
+        <v>0.2052796970799834</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2109311888594016</v>
+        <v>0.2148255721386639</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2637680867878565</v>
+        <v>0.2650240105289762</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2161345726429131</v>
+        <v>0.2198912749016047</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1836426103574469</v>
+        <v>0.1856363044289387</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2370714983194824</v>
+        <v>0.2309997316766852</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2924676978508685</v>
+        <v>0.2875938938291845</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2808444132861724</v>
+        <v>0.2783961220235595</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.372451099641494</v>
+        <v>0.3695841535288628</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3439685204344059</v>
+        <v>0.350774301470696</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.4028239211799227</v>
+        <v>0.4073243785527661</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3148206844085295</v>
+        <v>0.3099879590610952</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2627471687687478</v>
+        <v>0.2658704691386075</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.2767461669401595</v>
+        <v>0.2777519365346318</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3351312724916464</v>
+        <v>0.3318275120617622</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2813475609080731</v>
+        <v>0.2822173425405258</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1695604879274913</v>
+        <v>0.1708203239245811</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1886953738844379</v>
+        <v>0.1895687810419848</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.09958240433950105</v>
+        <v>0.1023424403958237</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.06389013272616523</v>
+        <v>0.06240981769944298</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2970626610680005</v>
+        <v>0.2954573689864964</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3486445984417104</v>
+        <v>0.345904825496788</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1815694408194408</v>
+        <v>0.1829509290649474</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1009129959534928</v>
+        <v>0.1017704759633169</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2512360363471152</v>
+        <v>0.2520436600884488</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2867258749499084</v>
+        <v>0.2843831655819318</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1557266901200785</v>
+        <v>0.1545746538062533</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.09343528015131472</v>
+        <v>0.09206158845701243</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2772742708657079</v>
+        <v>0.2832442036084635</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3087787421790949</v>
+        <v>0.3164842908192593</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1970742585327304</v>
+        <v>0.2000280216522416</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1384662094382894</v>
+        <v>0.1345404309157129</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.440837537899998</v>
+        <v>0.4324495104313751</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4831763191628499</v>
+        <v>0.4777426241065995</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2996129688239362</v>
+        <v>0.2994278162026531</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1660617762734397</v>
+        <v>0.1680171206024955</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3397584098940194</v>
+        <v>0.3445471555481403</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3821294888238203</v>
+        <v>0.3792634882284217</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2301126102878923</v>
+        <v>0.2295165716431166</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1405192595738087</v>
+        <v>0.1414419394783263</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.4773709011788956</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.2262552899425029</v>
+        <v>0.2262552899425028</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.2412692283434724</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1259534504427487</v>
+        <v>0.1282423567677426</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2428331612030775</v>
+        <v>0.2429560540737239</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.3451826645986353</v>
+        <v>0.3532141471808855</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1509760565166898</v>
+        <v>0.1502064274890263</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2545574214755373</v>
+        <v>0.2604354444068041</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3381208309968818</v>
+        <v>0.3387617297275834</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.4139518875679047</v>
+        <v>0.4160100643407552</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1921340266589853</v>
+        <v>0.1884293070998628</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2043318542554793</v>
+        <v>0.2077755483946896</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.3037375054569144</v>
+        <v>0.3042661252336185</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.4012947625348351</v>
+        <v>0.4017202321403655</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1807505324350494</v>
+        <v>0.1806650148325413</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2170350648250865</v>
+        <v>0.2175453221342169</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3506248985090457</v>
+        <v>0.3584584300504864</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.4683841136080959</v>
+        <v>0.4652784021775132</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2321483869739742</v>
+        <v>0.2302945886837286</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3650968975836925</v>
+        <v>0.3723000728498946</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.4559672945348331</v>
+        <v>0.454829302180102</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.5362541314104659</v>
+        <v>0.5369371617581981</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2685989162473785</v>
+        <v>0.2680226100041215</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2792223879167442</v>
+        <v>0.2801059366983932</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3840354426463221</v>
+        <v>0.3859642520946919</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4880472552257599</v>
+        <v>0.4874768326732519</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2366607570684655</v>
+        <v>0.2394149010138521</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.2696387271262951</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.3137459694108006</v>
+        <v>0.3137459694108007</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.2865228600863696</v>
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2007313614426365</v>
+        <v>0.2008344069069754</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2206750164321012</v>
+        <v>0.2200991702906804</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.197915003322974</v>
+        <v>0.1974537708731705</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1913063103982413</v>
+        <v>0.1914122984101548</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3038014569606751</v>
+        <v>0.2992305473403318</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.286847456980406</v>
+        <v>0.2833867614970182</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2373120605332094</v>
+        <v>0.2378881150912312</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2841293081945984</v>
+        <v>0.2817183069356413</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2631932485678865</v>
+        <v>0.259934507372226</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2644130795185132</v>
+        <v>0.2660796763606376</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2254064550484255</v>
+        <v>0.2266785497396153</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2499650067848905</v>
+        <v>0.2489334322475479</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2705317581123207</v>
+        <v>0.2690015122626191</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.290265990896964</v>
+        <v>0.2911111359965192</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2669070387217221</v>
+        <v>0.2648551340940157</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2644885035855835</v>
+        <v>0.2636747207510579</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3740553314931575</v>
+        <v>0.3747839185300226</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.360164901414232</v>
+        <v>0.3587900361873057</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3104553951045503</v>
+        <v>0.3037887160896171</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3470406598154022</v>
+        <v>0.3470952894336074</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3135923491955259</v>
+        <v>0.3104437581433124</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3134753064316418</v>
+        <v>0.3167819800221185</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2768320632914444</v>
+        <v>0.2756236771359548</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2945730899818659</v>
+        <v>0.2950344376169308</v>
       </c>
     </row>
     <row r="25">
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.209453540431714</v>
+        <v>0.212800608299904</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1716535045586457</v>
+        <v>0.1737025568807252</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2541096297086717</v>
+        <v>0.2548435342643404</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.1720561576649762</v>
+        <v>0.1688346289994769</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.2893705573701979</v>
+        <v>0.291171768600457</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.23610209690531</v>
+        <v>0.2421156117472488</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.3030575898519734</v>
+        <v>0.3029383009755806</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.2406279690554878</v>
+        <v>0.2413195267241219</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.259332393357755</v>
+        <v>0.2596315601110566</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.2167475533410366</v>
+        <v>0.2161895003835762</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.2899416664968444</v>
+        <v>0.2922920257098802</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.2145458895178678</v>
+        <v>0.215476527292484</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.276182587537482</v>
+        <v>0.2748958093090431</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.2345034998712299</v>
+        <v>0.2368909902868349</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.321967741678938</v>
+        <v>0.3198900116084911</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.229391738395554</v>
+        <v>0.2291947333100562</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.3573901400848723</v>
+        <v>0.3594687363989855</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.3030310242353617</v>
+        <v>0.303991892908495</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.3758629277418088</v>
+        <v>0.3739216933865157</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.2954451807590653</v>
+        <v>0.292943852611915</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.3077411734100895</v>
+        <v>0.3069677563952411</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.2606662879897427</v>
+        <v>0.2605352207329935</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.3378082176914088</v>
+        <v>0.3395600514292948</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2538859132215829</v>
+        <v>0.2537752284994591</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.188984596870275</v>
+        <v>0.1877899669202657</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.213068332819452</v>
+        <v>0.2132870130301244</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.2384655859494653</v>
+        <v>0.236723305624933</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.1814564610639708</v>
+        <v>0.1827995328503909</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2954308415017589</v>
+        <v>0.2939767912264216</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.308677831206502</v>
+        <v>0.3103808066211563</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.313264744980591</v>
+        <v>0.3116276184714611</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.2368081250021007</v>
+        <v>0.2362203684372849</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.2464243013997297</v>
+        <v>0.2467907261342278</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.265808614686605</v>
+        <v>0.2671231772808317</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.2799963819991649</v>
+        <v>0.2798574871971083</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.2134275925074683</v>
+        <v>0.2135745055365964</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.215520441007571</v>
+        <v>0.2163922453527092</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2434262325727269</v>
+        <v>0.2444543294601124</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.2679011602449023</v>
+        <v>0.2664725960553062</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.2094255985807232</v>
+        <v>0.211750600881779</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.327921351776446</v>
+        <v>0.3263306962826131</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.342382894504774</v>
+        <v>0.3414555016624367</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.3446118315934932</v>
+        <v>0.3437669903037969</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.2609000281379457</v>
+        <v>0.2621391441648098</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.2680049051078973</v>
+        <v>0.2678165261359747</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.2890686825286609</v>
+        <v>0.2901135118398164</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.3021809935252113</v>
+        <v>0.302632957145449</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.2315648510105043</v>
+        <v>0.2328806131976555</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>37552</v>
+        <v>37954</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>48260</v>
+        <v>48233</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>54864</v>
+        <v>53137</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>52538</v>
+        <v>52001</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>52323</v>
+        <v>52912</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>77540</v>
+        <v>78800</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>78141</v>
+        <v>77996</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>69500</v>
+        <v>69453</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>96491</v>
+        <v>97306</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>135968</v>
+        <v>135708</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>141783</v>
+        <v>140795</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>128128</v>
+        <v>127691</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>61765</v>
+        <v>62418</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>76806</v>
+        <v>78437</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>84140</v>
+        <v>83183</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>80443</v>
+        <v>80897</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>80808</v>
+        <v>80609</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>112509</v>
+        <v>114338</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>110834</v>
+        <v>109582</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>95564</v>
+        <v>94221</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>137837</v>
+        <v>134383</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>179739</v>
+        <v>179349</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>184327</v>
+        <v>186269</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>166514</v>
+        <v>168324</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>71527</v>
+        <v>72197</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>85421</v>
+        <v>84478</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>91159</v>
+        <v>93479</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>67129</v>
+        <v>66036</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>113137</v>
+        <v>114170</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>135947</v>
+        <v>133682</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>160210</v>
+        <v>158911</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>86259</v>
+        <v>86500</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>196750</v>
+        <v>196547</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>226689</v>
+        <v>230571</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>263486</v>
+        <v>263340</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>162477</v>
+        <v>159280</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>107356</v>
+        <v>104717</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>124627</v>
+        <v>126066</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>128167</v>
+        <v>131185</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>105038</v>
+        <v>104450</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>153012</v>
+        <v>153257</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>180075</v>
+        <v>178423</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>204796</v>
+        <v>203550</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>119339</v>
+        <v>119364</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>249104</v>
+        <v>248644</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>287150</v>
+        <v>285579</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>323534</v>
+        <v>322636</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>210661</v>
+        <v>213799</v>
       </c>
     </row>
     <row r="12">
@@ -2508,40 +2508,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>41942</v>
+        <v>42072</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>70391</v>
+        <v>70767</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>60492</v>
+        <v>60728</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>50736</v>
+        <v>51922</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>85538</v>
+        <v>84363</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>126092</v>
+        <v>125198</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>88151</v>
+        <v>88917</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>66748</v>
+        <v>66223</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>134774</v>
+        <v>133349</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>204203</v>
+        <v>205187</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>156601</v>
+        <v>155864</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>126558</v>
+        <v>124347</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>70376</v>
+        <v>69746</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>103014</v>
+        <v>104940</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>90409</v>
+        <v>90161</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>77650</v>
+        <v>79433</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>118187</v>
+        <v>116317</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>162621</v>
+        <v>161768</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>121202</v>
+        <v>121812</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>92943</v>
+        <v>91716</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>176752</v>
+        <v>176757</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>255106</v>
+        <v>254469</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>201264</v>
+        <v>201644</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>162589</v>
+        <v>161361</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>40730</v>
+        <v>41648</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>56683</v>
+        <v>55558</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>74051</v>
+        <v>73618</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>65451</v>
+        <v>66521</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>104689</v>
+        <v>103608</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>95899</v>
+        <v>98180</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>116454</v>
+        <v>118244</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>98193</v>
+        <v>96660</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>150257</v>
+        <v>149880</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>159229</v>
+        <v>162169</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>199738</v>
+        <v>200689</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>171759</v>
+        <v>174744</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>65867</v>
+        <v>66582</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>88427</v>
+        <v>86162</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>108203</v>
+        <v>106399</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>104796</v>
+        <v>103882</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>138349</v>
+        <v>137284</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>131358</v>
+        <v>133957</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>156007</v>
+        <v>157750</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>132709</v>
+        <v>130672</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>191839</v>
+        <v>194119</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>208912</v>
+        <v>209671</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>253777</v>
+        <v>251275</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>223583</v>
+        <v>224274</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>34473</v>
+        <v>34729</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>39929</v>
+        <v>40113</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>21034</v>
+        <v>21617</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>13140</v>
+        <v>12836</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>61690</v>
+        <v>61357</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>76559</v>
+        <v>75958</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>39689</v>
+        <v>39991</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>22840</v>
+        <v>23034</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>103252</v>
+        <v>103584</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>123634</v>
+        <v>122624</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>66933</v>
+        <v>66437</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>40364</v>
+        <v>39771</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>56372</v>
+        <v>57586</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>65339</v>
+        <v>66969</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>41626</v>
+        <v>42250</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>28478</v>
+        <v>27670</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>91548</v>
+        <v>89806</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>106101</v>
+        <v>104908</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>65492</v>
+        <v>65451</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>37586</v>
+        <v>38028</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>139633</v>
+        <v>141601</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>164772</v>
+        <v>163536</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>98904</v>
+        <v>98648</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>60704</v>
+        <v>61103</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>34110</v>
+        <v>34729</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>66532</v>
+        <v>66565</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>90825</v>
+        <v>92939</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>40870</v>
+        <v>40662</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>70804</v>
+        <v>72439</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>94363</v>
+        <v>94542</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>113056</v>
+        <v>113619</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>50675</v>
+        <v>49698</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>112169</v>
+        <v>114059</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>167985</v>
+        <v>168278</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>215190</v>
+        <v>215418</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>96603</v>
+        <v>96558</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>58775</v>
+        <v>58914</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>96065</v>
+        <v>98211</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>123243</v>
+        <v>122425</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>62844</v>
+        <v>62342</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>101550</v>
+        <v>103553</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>127251</v>
+        <v>126934</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>146459</v>
+        <v>146646</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>70843</v>
+        <v>70691</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>153281</v>
+        <v>153766</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>212395</v>
+        <v>213462</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>261709</v>
+        <v>261404</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>126485</v>
+        <v>127957</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>122919</v>
+        <v>122983</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>146063</v>
+        <v>145682</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>129943</v>
+        <v>129640</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>137681</v>
+        <v>137757</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>193892</v>
+        <v>190975</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>199030</v>
+        <v>196629</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>164052</v>
+        <v>164451</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>219060</v>
+        <v>217201</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>329143</v>
+        <v>325068</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>358476</v>
+        <v>360736</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>303815</v>
+        <v>305529</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>372616</v>
+        <v>371078</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>165662</v>
+        <v>164725</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>192124</v>
+        <v>192684</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>175240</v>
+        <v>173893</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>190349</v>
+        <v>189763</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>238729</v>
+        <v>239194</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>249901</v>
+        <v>248948</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>214616</v>
+        <v>210007</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>267563</v>
+        <v>267606</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>392171</v>
+        <v>388234</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>424992</v>
+        <v>429475</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>373129</v>
+        <v>371500</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>439112</v>
+        <v>439800</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>155790</v>
+        <v>158280</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>133035</v>
+        <v>134623</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>197845</v>
+        <v>198417</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>137198</v>
+        <v>134629</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>226725</v>
+        <v>228136</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>194029</v>
+        <v>198971</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>250376</v>
+        <v>250278</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>199737</v>
+        <v>200311</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>396080</v>
+        <v>396537</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>346107</v>
+        <v>345216</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>465284</v>
+        <v>469056</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>349167</v>
+        <v>350681</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>205423</v>
+        <v>204466</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>181744</v>
+        <v>183595</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>250679</v>
+        <v>249061</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>182918</v>
+        <v>182761</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>280019</v>
+        <v>281648</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>249032</v>
+        <v>249821</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>310526</v>
+        <v>308922</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>245238</v>
+        <v>243162</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>470015</v>
+        <v>468834</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>416237</v>
+        <v>416028</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>542098</v>
+        <v>544909</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>413191</v>
+        <v>413011</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>618712</v>
+        <v>614801</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>727173</v>
+        <v>727919</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>809436</v>
+        <v>803522</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>640757</v>
+        <v>645500</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>997725</v>
+        <v>992814</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>1094954</v>
+        <v>1100995</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>1110380</v>
+        <v>1104577</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>883443</v>
+        <v>881250</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>1638983</v>
+        <v>1641420</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>1850055</v>
+        <v>1859204</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>1942865</v>
+        <v>1941901</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>1549871</v>
+        <v>1550938</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>705587</v>
+        <v>708441</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>830780</v>
+        <v>834289</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>909350</v>
+        <v>904501</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>739521</v>
+        <v>747731</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>1107451</v>
+        <v>1102079</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1214514</v>
+        <v>1211224</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1221491</v>
+        <v>1218497</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>973320</v>
+        <v>977943</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1782516</v>
+        <v>1781264</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>2011947</v>
+        <v>2019219</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>2096801</v>
+        <v>2099937</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>1681581</v>
+        <v>1691136</v>
       </c>
     </row>
     <row r="40">
